--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1740162.346366493</v>
+        <v>1848313.439280786</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936921</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283192</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10166633.26955484</v>
+        <v>10172676.2801421</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>55.46246302513036</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>201.3825366600131</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>129.5096524616747</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>2.299725027998258</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,16 +904,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>322.1173278919818</v>
       </c>
       <c r="H5" t="n">
-        <v>195.8125821214534</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1060,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>83.43295966312228</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -1108,16 +1110,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>89.09103194192025</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>381.7000100693409</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>277.9893258694407</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>144.9386286563272</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>139.9047048698942</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1379,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695349</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>27.34574348918484</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1543,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>140.3829797864967</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1585,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.47207866588813</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1774,7 +1776,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1895,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1907,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1999,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2059,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>139.732875070338</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2084,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2144,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>215.7183996732882</v>
+        <v>245.879692121443</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2479,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>41.55695577161148</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>139.6152205166461</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2725,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>74.20064764874441</v>
+        <v>158.4589496224476</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2956,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8253826161909023</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>51.36569740310337</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3205,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,25 +3237,25 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>245.9303968412798</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>110.1444095748051</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3329,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3433,10 +3435,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>105.3305008047038</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>158.3910158645298</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3664,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V40" t="n">
-        <v>40.37234576591481</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3898,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3907,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3946,16 +3948,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>134.3262991707158</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>251.2117044543522</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4040,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>7.069540131684027</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>185.6920487814947</v>
       </c>
     </row>
   </sheetData>
@@ -4304,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1257.650691388938</v>
+        <v>1632.688211171978</v>
       </c>
       <c r="C2" t="n">
-        <v>888.6881744485261</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="D2" t="n">
-        <v>888.6881744485261</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E2" t="n">
-        <v>888.6881744485261</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F2" t="n">
-        <v>477.7022696589185</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>2358.922624703172</v>
       </c>
       <c r="W2" t="n">
-        <v>1644.250531453059</v>
+        <v>2006.153969433058</v>
       </c>
       <c r="X2" t="n">
-        <v>1644.250531453059</v>
+        <v>1632.688211171978</v>
       </c>
       <c r="Y2" t="n">
-        <v>1644.250531453059</v>
+        <v>1632.688211171978</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100998</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>1295.75982926932</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N3" t="n">
-        <v>1683.044957866265</v>
+        <v>1590.463386300792</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.7261630934936</v>
+        <v>1530.237776630642</v>
       </c>
       <c r="C4" t="n">
-        <v>498.7899801655867</v>
+        <v>1530.237776630642</v>
       </c>
       <c r="D4" t="n">
-        <v>367.9721493962183</v>
+        <v>1380.121137218306</v>
       </c>
       <c r="E4" t="n">
-        <v>367.9721493962183</v>
+        <v>1232.208043635913</v>
       </c>
       <c r="F4" t="n">
-        <v>367.9721493962183</v>
+        <v>1085.318096138003</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>1082.995141564267</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>1082.995141564267</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936603</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>1002.609167878779</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627705</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>1750.112669035316</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.98193257148</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324692</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496681</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234359</v>
+        <v>2263.127174075598</v>
       </c>
       <c r="T4" t="n">
-        <v>1439.817372234359</v>
+        <v>2040.148693270334</v>
       </c>
       <c r="U4" t="n">
-        <v>1439.817372234359</v>
+        <v>1751.030355774172</v>
       </c>
       <c r="V4" t="n">
-        <v>1185.132884028472</v>
+        <v>1751.030355774172</v>
       </c>
       <c r="W4" t="n">
-        <v>895.7157139915109</v>
+        <v>1751.030355774172</v>
       </c>
       <c r="X4" t="n">
-        <v>667.7261630934936</v>
+        <v>1751.030355774172</v>
       </c>
       <c r="Y4" t="n">
-        <v>667.7261630934936</v>
+        <v>1530.237776630642</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1465.289389295559</v>
+        <v>1966.993846941858</v>
       </c>
       <c r="C5" t="n">
-        <v>1096.326872355147</v>
+        <v>1598.031330001446</v>
       </c>
       <c r="D5" t="n">
-        <v>738.0611737483964</v>
+        <v>1239.765631394696</v>
       </c>
       <c r="E5" t="n">
-        <v>738.0611737483964</v>
+        <v>853.9773787964514</v>
       </c>
       <c r="F5" t="n">
-        <v>327.0752689587889</v>
+        <v>442.9914740068438</v>
       </c>
       <c r="G5" t="n">
-        <v>315.4109227234818</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362822</v>
@@ -4592,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.89447953245</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V5" t="n">
-        <v>2228.89447953245</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W5" t="n">
-        <v>2228.89447953245</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="X5" t="n">
-        <v>1855.42872127137</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="Y5" t="n">
-        <v>1465.289389295559</v>
+        <v>2353.59368700598</v>
       </c>
     </row>
     <row r="6">
@@ -4638,34 +4640,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>423.148951518066</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L6" t="n">
-        <v>1057.327935297104</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M6" t="n">
-        <v>1420.589954256325</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N6" t="n">
-        <v>1807.87508285327</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>769.5800553833139</v>
+        <v>410.3138329979533</v>
       </c>
       <c r="C7" t="n">
-        <v>600.6438724554071</v>
+        <v>241.3776500700464</v>
       </c>
       <c r="D7" t="n">
-        <v>600.6438724554071</v>
+        <v>241.3776500700464</v>
       </c>
       <c r="E7" t="n">
-        <v>452.7307788730139</v>
+        <v>241.3776500700464</v>
       </c>
       <c r="F7" t="n">
-        <v>305.8408313751036</v>
+        <v>241.3776500700464</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>241.3776500700464</v>
       </c>
       <c r="H7" t="n">
         <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4747,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1114.255484944676</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V7" t="n">
-        <v>859.5709967387889</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="W7" t="n">
-        <v>769.5800553833139</v>
+        <v>638.3033838959707</v>
       </c>
       <c r="X7" t="n">
-        <v>769.5800553833139</v>
+        <v>410.3138329979533</v>
       </c>
       <c r="Y7" t="n">
-        <v>769.5800553833139</v>
+        <v>410.3138329979533</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1917.382287315189</v>
+        <v>1966.993846941857</v>
       </c>
       <c r="C8" t="n">
-        <v>1548.419770374778</v>
+        <v>1966.993846941857</v>
       </c>
       <c r="D8" t="n">
-        <v>1190.154071768027</v>
+        <v>1608.728148335107</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>1222.939895736863</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816083</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>2353.593687005979</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>2353.593687005979</v>
       </c>
       <c r="V8" t="n">
-        <v>2961.784676410102</v>
+        <v>2353.593687005979</v>
       </c>
       <c r="W8" t="n">
-        <v>2680.987377552081</v>
+        <v>2353.593687005979</v>
       </c>
       <c r="X8" t="n">
-        <v>2307.521619291001</v>
+        <v>2353.593687005979</v>
       </c>
       <c r="Y8" t="n">
-        <v>1917.382287315189</v>
+        <v>2353.593687005979</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>71.67401812057896</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>362.8459426266613</v>
+        <v>452.2434865835148</v>
       </c>
       <c r="C10" t="n">
-        <v>362.8459426266613</v>
+        <v>305.8408313751035</v>
       </c>
       <c r="D10" t="n">
-        <v>212.7293032143256</v>
+        <v>305.8408313751035</v>
       </c>
       <c r="E10" t="n">
-        <v>212.7293032143256</v>
+        <v>305.8408313751035</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>305.8408313751035</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>305.8408313751035</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>1282.693707535409</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V10" t="n">
-        <v>1282.693707535409</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W10" t="n">
-        <v>993.2765374984485</v>
+        <v>673.036065727045</v>
       </c>
       <c r="X10" t="n">
-        <v>765.2869866004312</v>
+        <v>673.036065727045</v>
       </c>
       <c r="Y10" t="n">
-        <v>544.4944074569011</v>
+        <v>452.2434865835148</v>
       </c>
     </row>
     <row r="11">
@@ -5021,49 +5023,49 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5075,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913851</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M12" t="n">
-        <v>913.2907898187003</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373307</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.9553291057244</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5224,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2238.116390149333</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304621</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267661</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369643</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.5772922261132</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5270,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,7 +5296,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5303,25 +5305,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793924</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348531</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
-        <v>2299.457522348531</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.777212765616</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429803</v>
@@ -5431,16 +5433,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5455,31 +5457,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832659</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487563</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510504</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510504</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304617</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267657</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369639</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.5772922261091</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5507,52 +5509,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5586,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>562.8579153358621</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1058.183521551621</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>1655.562009178173</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N18" t="n">
-        <v>2283.159972732779</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O18" t="n">
-        <v>2283.159972732779</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>809.0422355233313</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>640.1060525954244</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5707,16 +5709,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1547.241535601839</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1257.824365564879</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1029.834814666861</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>809.0422355233313</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5771,28 +5773,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C22" t="n">
-        <v>847.644273983533</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782912</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038298</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797699</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910805</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570813</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279798</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853356</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580256</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580256</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580256</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603197</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U22" t="n">
-        <v>2009.464245195835</v>
+        <v>3972.967823953646</v>
       </c>
       <c r="V22" t="n">
-        <v>1754.779756989948</v>
+        <v>3972.967823953646</v>
       </c>
       <c r="W22" t="n">
-        <v>1465.362586952987</v>
+        <v>3972.967823953646</v>
       </c>
       <c r="X22" t="n">
-        <v>1237.37303605497</v>
+        <v>3744.978273055629</v>
       </c>
       <c r="Y22" t="n">
-        <v>1016.58045691144</v>
+        <v>3524.185693912098</v>
       </c>
     </row>
     <row r="23">
@@ -5981,16 +5983,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6072,22 +6074,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.311647517212</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>2252.221377756499</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>948.5505208511905</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C25" t="n">
-        <v>779.6143379232836</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6172,25 +6174,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235165</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>2123.082773965825</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V25" t="n">
-        <v>1868.398285759938</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W25" t="n">
-        <v>1578.981115722978</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X25" t="n">
-        <v>1350.99156482496</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y25" t="n">
-        <v>1130.19898568143</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="26">
@@ -6239,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6306,25 +6308,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M27" t="n">
-        <v>1307.627092998424</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>727.9786782557277</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C28" t="n">
-        <v>559.0424953278208</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D28" t="n">
-        <v>408.925855915485</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6415,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1902.510931370362</v>
+        <v>1817.401535437329</v>
       </c>
       <c r="V28" t="n">
-        <v>1647.826443164475</v>
+        <v>1562.717047231442</v>
       </c>
       <c r="W28" t="n">
-        <v>1358.409273127515</v>
+        <v>1273.299877194481</v>
       </c>
       <c r="X28" t="n">
-        <v>1130.419722229497</v>
+        <v>1045.310326296464</v>
       </c>
       <c r="Y28" t="n">
-        <v>909.6271430859674</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6543,25 +6545,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D31" t="n">
-        <v>261.8464821474262</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6646,25 +6648,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6691,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6777,28 +6779,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O33" t="n">
-        <v>2148.04349261611</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>956.9553291057244</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C34" t="n">
-        <v>788.0191461778176</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6883,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U34" t="n">
-        <v>1729.046538246589</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V34" t="n">
-        <v>1474.362050040702</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W34" t="n">
-        <v>1184.944880003742</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X34" t="n">
-        <v>956.9553291057244</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y34" t="n">
-        <v>956.9553291057244</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6925,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6938,7 +6940,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6977,7 +6979,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>2715.159942084666</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>3210.485548300425</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>3210.485548300425</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N36" t="n">
-        <v>3838.083511855032</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>4389.993242094319</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>4420.931837070599</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>808.8888553856862</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C37" t="n">
-        <v>639.9526724577793</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D37" t="n">
-        <v>489.8360330454435</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E37" t="n">
-        <v>341.9229394630504</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7138,7 +7140,7 @@
         <v>1211.329899359456</v>
       </c>
       <c r="Y37" t="n">
-        <v>990.5373202159259</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="38">
@@ -7154,37 +7156,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>542.9134462654469</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
-        <v>1140.291933891999</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>1767.889897446606</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
         <v>2319.799627685893</v>
@@ -7306,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>948.5505208511906</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>779.6143379232838</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
         <v>779.6143379232838</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V40" t="n">
-        <v>1647.605706616408</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W40" t="n">
-        <v>1358.188536579448</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>1130.19898568143</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>1130.19898568143</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7391,22 +7393,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7421,37 +7423,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1337.934786622704</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>1337.934786622704</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O42" t="n">
-        <v>1889.844516861991</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P42" t="n">
-        <v>2313.467666357059</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2546.729326731942</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>803.8641191832229</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C43" t="n">
-        <v>634.927936255316</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
         <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7594,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2244.234249357192</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.632784380133</v>
       </c>
       <c r="U43" t="n">
-        <v>1977.461080510508</v>
+        <v>1735.557557724331</v>
       </c>
       <c r="V43" t="n">
-        <v>1723.711884091971</v>
+        <v>1480.873069518444</v>
       </c>
       <c r="W43" t="n">
-        <v>1434.29471405501</v>
+        <v>1191.455899481483</v>
       </c>
       <c r="X43" t="n">
-        <v>1206.305163156993</v>
+        <v>963.4663485834661</v>
       </c>
       <c r="Y43" t="n">
-        <v>985.5125840134626</v>
+        <v>963.4663485834661</v>
       </c>
     </row>
     <row r="44">
@@ -7634,16 +7636,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7670,25 +7672,25 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,25 +7721,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>634.5603720565526</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1231.938859683105</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7798,10 +7800,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7828,25 +7830,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>1970.320130882545</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V46" t="n">
-        <v>1715.635642676658</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W46" t="n">
-        <v>1426.218472639697</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X46" t="n">
-        <v>1198.22892174168</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y46" t="n">
         <v>1198.22892174168</v>
@@ -8061,16 +8063,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.3877325071647</v>
       </c>
       <c r="O3" t="n">
-        <v>186.5911984019046</v>
+        <v>255.524048747157</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,22 +8294,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>240.4465442417437</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>60.50016306149593</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8550,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.4862366927525</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23431,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>40.64330621514785</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23475,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>147.3599015160491</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23947,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>112.40476825349</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>70.46607471595598</v>
+        <v>40.3047822678011</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>104.8770068749577</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24414,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>146.569253872598</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>211.9838267404998</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24844,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>145.6085800303783</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24888,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>166.0397529241849</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,25 +25125,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>40.25407754796439</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>176.3785887617859</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25321,10 +25323,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>40.09054721822741</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>60.19363748756501</v>
       </c>
     </row>
     <row r="38">
@@ -25552,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25594,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V40" t="n">
-        <v>211.7652975579132</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25834,16 +25836,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>46.69998683092876</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0.9259388694757718</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>279.1149342575601</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>32.8926045706001</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>889329.2862192403</v>
+        <v>895865.4064704182</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>874391.9782818921</v>
+        <v>874391.9782818923</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>874391.9782818921</v>
+        <v>874391.9782818923</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>874391.9782818921</v>
+        <v>874391.9782818923</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>874391.9782818921</v>
+        <v>874391.9782818923</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>874391.9782818921</v>
+        <v>874391.9782818923</v>
       </c>
     </row>
   </sheetData>
@@ -26317,40 +26319,40 @@
         <v>554203.1946583914</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583916</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="E2" t="n">
         <v>544823.9547907538</v>
       </c>
       <c r="F2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="G2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="G2" t="n">
-        <v>544823.9547907542</v>
-      </c>
       <c r="H2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="I2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="J2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="K2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="L2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="M2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="N2" t="n">
         <v>544823.9547907538</v>
       </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>544823.9547907539</v>
-      </c>
-      <c r="L2" t="n">
-        <v>544823.9547907538</v>
-      </c>
-      <c r="M2" t="n">
-        <v>544823.9547907537</v>
-      </c>
-      <c r="N2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.954790754</v>
       </c>
       <c r="P2" t="n">
         <v>544823.9547907539</v>
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819071</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>133113.8635467443</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="D4" t="n">
-        <v>86694.40323307095</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719669</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719698</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="P4" t="n">
-        <v>7507.368461719698</v>
+        <v>7507.368461719667</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26475,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26522,43 +26524,43 @@
         <v>-786600.2249041172</v>
       </c>
       <c r="C6" t="n">
-        <v>328151.5586718024</v>
+        <v>328151.5586718026</v>
       </c>
       <c r="D6" t="n">
-        <v>166947.7104235895</v>
+        <v>328151.5586718022</v>
       </c>
       <c r="E6" t="n">
-        <v>110781.5946977722</v>
+        <v>-71291.38511941885</v>
       </c>
       <c r="F6" t="n">
+        <v>436194.0565051272</v>
+      </c>
+      <c r="G6" t="n">
         <v>436194.0565051271</v>
       </c>
-      <c r="G6" t="n">
-        <v>436194.0565051275</v>
-      </c>
       <c r="H6" t="n">
-        <v>436194.0565051273</v>
+        <v>436194.0565051271</v>
       </c>
       <c r="I6" t="n">
         <v>436194.0565051271</v>
       </c>
       <c r="J6" t="n">
-        <v>268588.8786951444</v>
+        <v>268588.8786951446</v>
       </c>
       <c r="K6" t="n">
+        <v>436194.0565051272</v>
+      </c>
+      <c r="L6" t="n">
         <v>436194.0565051271</v>
       </c>
-      <c r="L6" t="n">
-        <v>387900.0864969363</v>
-      </c>
       <c r="M6" t="n">
-        <v>351139.0285696152</v>
+        <v>303586.7627762004</v>
       </c>
       <c r="N6" t="n">
-        <v>436194.0565051272</v>
+        <v>436194.0565051269</v>
       </c>
       <c r="O6" t="n">
-        <v>436194.0565051272</v>
+        <v>436194.0565051271</v>
       </c>
       <c r="P6" t="n">
         <v>436194.0565051271</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26826,10 +26828,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022538</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>356.0852397478236</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>126.3697218101218</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27537,25 +27539,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>19.10582055653762</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.0068750168059</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,16 +27624,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>89.43037488097218</v>
       </c>
       <c r="H5" t="n">
-        <v>105.205970440952</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27679,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27780,16 +27782,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>63.8185494920066</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,16 +27830,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>197.4319663946708</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>25.17603567237052</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>71.25164284797233</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>22.30819244230065</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,13 +28025,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,16 +28067,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>146.3071333357187</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31039,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,37 +31840,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M12" t="n">
-        <v>318.3985571819327</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,28 +32074,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>390.1398273256881</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32309,16 +32311,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>458.677017313216</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,13 +32329,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>213.1625787491746</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32552,28 +32554,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N21" t="n">
-        <v>193.1175412796309</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32792,10 +32794,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>302.3396059822671</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,13 +32806,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>202.2352659288688</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,28 +33028,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M27" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,28 +33265,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>639.8517673857162</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33427,7 +33429,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N32" t="n">
         <v>981.2715114159425</v>
@@ -33497,7 +33499,7 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33509,19 +33511,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>307.4654529393634</v>
+        <v>431.3680753731354</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33746,19 +33748,19 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>165.2255134509767</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,19 +33970,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>590.4022545401851</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>282.8216163968503</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,7 +33991,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
@@ -34211,28 +34213,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>399.0581126127094</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>152.0754244981388</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34390,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34445,22 +34447,22 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>533.6019216797995</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34699,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0158803980277</v>
+        <v>590.9487307432801</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
@@ -34799,7 +34801,7 @@
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35012,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>607.3778765237842</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>395.9248450576189</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235322</v>
@@ -35036,7 +35038,7 @@
         <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M12" t="n">
-        <v>176.2645232599144</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>256.1654199113578</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998944</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,10 +35883,10 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367767</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
@@ -35957,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>320.835578338857</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,13 +35977,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>73.18080466315305</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36118,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36200,28 +36202,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N21" t="n">
-        <v>61.77582919629761</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326294884</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36379,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,10 +36442,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>163.7852262023929</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,13 +36454,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>68.26085851453861</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36604,7 +36606,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
@@ -36613,7 +36615,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36674,28 +36676,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M27" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36850,7 +36852,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36911,28 +36913,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>508.510055302383</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37075,10 +37077,10 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37157,19 +37159,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>173.4910455250332</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37306,7 +37308,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37327,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37394,19 +37396,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>31.25110603664647</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,19 +37618,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>451.847874760311</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,7 +37639,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
@@ -37789,7 +37791,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193529</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37801,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37861,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>265.0837051983791</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>6.39592053417488</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>395.0475418999253</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1848313.439280786</v>
+        <v>1844176.282030636</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283194</v>
       </c>
     </row>
     <row r="9">
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>343.8470526562581</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>201.3825366600131</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>2.299725027998258</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>197.2597383356321</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,13 +907,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>322.1173278919818</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>66.44641297686549</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>83.43295966312228</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>171.1971464172148</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>381.7000100693409</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>286.5888679426066</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>144.9386286563272</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>23.94563726208645</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,22 +1341,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>140.3829797864967</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1773,7 +1773,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>72.57619040703501</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2250,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>140.9144183062133</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,10 +2295,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>245.879692121443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599955</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>41.55695577161148</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>104.8913819999787</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>158.4589496224476</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812101</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>51.36569740310337</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1.799772605705364</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856562</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012176</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W34" t="n">
-        <v>110.1444095748051</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710095</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695537</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>38.61213096654375</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y37" t="n">
-        <v>158.3910158645298</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="38">
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576191</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>41.55695577161103</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U40" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833944</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S43" t="n">
-        <v>134.3262991707158</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>185.6920487814947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1632.688211171978</v>
+        <v>880.6454412161675</v>
       </c>
       <c r="C2" t="n">
-        <v>1263.725694231566</v>
+        <v>880.6454412161675</v>
       </c>
       <c r="D2" t="n">
-        <v>1263.725694231566</v>
+        <v>880.6454412161675</v>
       </c>
       <c r="E2" t="n">
-        <v>877.9374416333219</v>
+        <v>880.6454412161675</v>
       </c>
       <c r="F2" t="n">
-        <v>466.9515368437143</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2358.922624703172</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2006.153969433058</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>1632.688211171978</v>
+        <v>1270.784773191979</v>
       </c>
       <c r="Y2" t="n">
-        <v>1632.688211171978</v>
+        <v>880.6454412161675</v>
       </c>
     </row>
     <row r="3">
@@ -4403,34 +4403,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>956.2844025217532</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N3" t="n">
-        <v>1590.463386300792</v>
+        <v>1861.38035112061</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>2193.450786296771</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2440.633520129068</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1530.237776630642</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C4" t="n">
-        <v>1530.237776630642</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D4" t="n">
-        <v>1380.121137218306</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E4" t="n">
-        <v>1232.208043635913</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>1085.318096138003</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>1082.995141564267</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>1082.995141564267</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936603</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.609167878779</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627705</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035316</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.98193257148</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324692</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496681</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2459.755921915737</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>2263.127174075598</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>2040.148693270334</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1751.030355774172</v>
+        <v>1437.193859129414</v>
       </c>
       <c r="V4" t="n">
-        <v>1751.030355774172</v>
+        <v>1182.509370923527</v>
       </c>
       <c r="W4" t="n">
-        <v>1751.030355774172</v>
+        <v>893.0922008865665</v>
       </c>
       <c r="X4" t="n">
-        <v>1751.030355774172</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="Y4" t="n">
-        <v>1530.237776630642</v>
+        <v>665.1026499885492</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1966.993846941858</v>
+        <v>1184.34337792405</v>
       </c>
       <c r="C5" t="n">
-        <v>1598.031330001446</v>
+        <v>1184.34337792405</v>
       </c>
       <c r="D5" t="n">
-        <v>1239.765631394696</v>
+        <v>826.0776793172992</v>
       </c>
       <c r="E5" t="n">
-        <v>853.9773787964514</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F5" t="n">
-        <v>442.9914740068438</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2495.221739534635</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2495.221739534635</v>
       </c>
       <c r="U5" t="n">
-        <v>2353.59368700598</v>
+        <v>2241.640678798814</v>
       </c>
       <c r="V5" t="n">
-        <v>2353.59368700598</v>
+        <v>1910.577791455244</v>
       </c>
       <c r="W5" t="n">
-        <v>2353.59368700598</v>
+        <v>1557.80913618513</v>
       </c>
       <c r="X5" t="n">
-        <v>2353.59368700598</v>
+        <v>1184.34337792405</v>
       </c>
       <c r="Y5" t="n">
-        <v>2353.59368700598</v>
+        <v>1184.34337792405</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
         <v>607.9167021542605</v>
@@ -4637,34 +4637,34 @@
         <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049857</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1456.147065963532</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N6" t="n">
-        <v>1843.432194560477</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O6" t="n">
-        <v>2175.502629736639</v>
+        <v>1675.63996629486</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q6" t="n">
         <v>2538.001278676482</v>
@@ -4685,7 +4685,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
         <v>1307.279776881661</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>410.3138329979533</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>241.3776500700464</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>241.3776500700464</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>241.3776500700464</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>241.3776500700464</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>241.3776500700464</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4752,25 +4752,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1216.838891429094</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>927.7205539329314</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>927.7205539329314</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>638.3033838959707</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X7" t="n">
-        <v>410.3138329979533</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y7" t="n">
-        <v>410.3138329979533</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1966.993846941857</v>
+        <v>728.3028554854573</v>
       </c>
       <c r="C8" t="n">
-        <v>1966.993846941857</v>
+        <v>359.3403385450455</v>
       </c>
       <c r="D8" t="n">
-        <v>1608.728148335107</v>
+        <v>359.3403385450455</v>
       </c>
       <c r="E8" t="n">
-        <v>1222.939895736863</v>
+        <v>359.3403385450455</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>352.3948377958421</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>340.730491560535</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816083</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4822,34 +4822,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.593687005979</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.593687005979</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2353.593687005979</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W8" t="n">
-        <v>2353.593687005979</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X8" t="n">
-        <v>2353.593687005979</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="Y8" t="n">
-        <v>2353.593687005979</v>
+        <v>1114.902695549579</v>
       </c>
     </row>
     <row r="9">
@@ -4859,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057896</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380223</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694941</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425659</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
         <v>1991.864164601821</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>452.2434865835148</v>
+        <v>1006.01552520271</v>
       </c>
       <c r="C10" t="n">
-        <v>305.8408313751035</v>
+        <v>837.0793422748035</v>
       </c>
       <c r="D10" t="n">
-        <v>305.8408313751035</v>
+        <v>686.9627028624677</v>
       </c>
       <c r="E10" t="n">
-        <v>305.8408313751035</v>
+        <v>539.0496092800746</v>
       </c>
       <c r="F10" t="n">
-        <v>305.8408313751035</v>
+        <v>392.1596617821642</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751035</v>
+        <v>224.1731970904428</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386097</v>
+        <v>75.43429895394902</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4989,25 +4989,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1216.838891429094</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>927.7205539329318</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>673.036065727045</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>673.036065727045</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X10" t="n">
-        <v>673.036065727045</v>
+        <v>1408.45656917648</v>
       </c>
       <c r="Y10" t="n">
-        <v>452.2434865835148</v>
+        <v>1187.66399003295</v>
       </c>
     </row>
     <row r="11">
@@ -5023,10 +5023,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5035,19 +5035,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5059,16 +5059,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2238.116390149333</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2018.514925172274</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,28 +5290,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1360.39208240939</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1132.402531511373</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="17">
@@ -5494,61 +5494,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,19 +5764,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3342.537229081859</v>
+        <v>870.3164745246301</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153952</v>
+        <v>701.3802915967232</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741616</v>
+        <v>551.2636521843874</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>403.3505586019943</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>3972.967823953646</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>3972.967823953646</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>3972.967823953646</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X22" t="n">
-        <v>3744.978273055629</v>
+        <v>1272.7575184984</v>
       </c>
       <c r="Y22" t="n">
-        <v>3524.185693912098</v>
+        <v>1051.96493935487</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6007,31 +6007,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327643</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048574</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,13 +6238,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>642.8692823226941</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>473.9330993947872</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D28" t="n">
-        <v>323.8164599824514</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E28" t="n">
-        <v>175.9033664000583</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1817.401535437329</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1562.717047231442</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1273.299877194481</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1045.310326296464</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>824.5177471529338</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6454,37 +6454,37 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C31" t="n">
-        <v>762.5348780504994</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381636</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2395.078540748843</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1333.912104952176</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y31" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
@@ -6697,31 +6697,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400606</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121536</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121536</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121536</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121536</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270335</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6861,7 +6861,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
         <v>826.1405381797745</v>
@@ -6870,40 +6870,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.96308358025</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832653</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487557</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510498</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854696</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648809</v>
       </c>
       <c r="W34" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611848</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138307</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703005</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6928,61 +6928,61 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>869.6905094135296</v>
+        <v>763.7541388327611</v>
       </c>
       <c r="C37" t="n">
-        <v>700.7543264856228</v>
+        <v>594.8179559048541</v>
       </c>
       <c r="D37" t="n">
-        <v>550.637687073287</v>
+        <v>555.8158034133958</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310025</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330921</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.0893932798</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853358</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580258</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580258</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580258</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603199</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947396</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741509</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704549</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.329899359456</v>
+        <v>1166.195182806531</v>
       </c>
       <c r="Y37" t="n">
-        <v>1051.338974243769</v>
+        <v>945.4026036630009</v>
       </c>
     </row>
     <row r="38">
@@ -7165,43 +7165,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192612</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273913</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348534</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>594.8179559048573</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>444.7013164925214</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>444.7013164925214</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>444.7013164925214</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>277.5052172074012</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>135.7933860495992</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.96308358026</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U40" t="n">
-        <v>2273.199413378161</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>945.4026036630041</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192514</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="42">
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273913</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M42" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N42" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348534</v>
       </c>
       <c r="O42" t="n">
-        <v>2253.988764961266</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>781.8178837532264</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C43" t="n">
-        <v>781.8178837532264</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="D43" t="n">
-        <v>631.7012443408906</v>
+        <v>194.80077839983</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>194.80077839983</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>194.80077839983</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
-        <v>2244.234249357192</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T43" t="n">
-        <v>2024.632784380133</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U43" t="n">
-        <v>1735.557557724331</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1480.873069518444</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1191.455899481483</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X43" t="n">
-        <v>963.4663485834661</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y43" t="n">
-        <v>963.4663485834661</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="44">
@@ -7636,19 +7636,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
         <v>402.7245934908939</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2157.887856924458</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1903.203368718571</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1613.786198681611</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1385.796647783593</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8066,22 +8066,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071647</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O3" t="n">
-        <v>255.524048747157</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>6.454437538930662</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,13 +8297,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>240.4465442417437</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>294.8344935184736</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878346</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>40.64330621514785</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>213.946807929556</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>4.506629716717924</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>40.3047822678011</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>104.8770068749577</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>62.35543909864917</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>127.7255247667966</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,19 +24840,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>138.4949402405068</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>166.0397529241849</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405186</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>176.3785887617859</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>110.0033420516687</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856562</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012176</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>60.19363748756501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25557,10 +25557,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>39.70888054695459</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012174</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.5498640939294</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>46.69998683092876</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>874391.9782818923</v>
+        <v>874391.9782818921</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>874391.9782818923</v>
+        <v>874391.9782818921</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>874391.9782818923</v>
+        <v>874391.9782818921</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>874391.9782818921</v>
+        <v>874391.9782818919</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>874391.9782818923</v>
+        <v>874391.9782818921</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583916</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583914</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.954790754</v>
       </c>
       <c r="F2" t="n">
         <v>544823.954790754</v>
       </c>
       <c r="G2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="H2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="I2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="J2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.954790754</v>
       </c>
       <c r="K2" t="n">
         <v>544823.954790754</v>
@@ -26346,16 +26346,16 @@
         <v>544823.9547907539</v>
       </c>
       <c r="M2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="N2" t="n">
+        <v>544823.9547907544</v>
+      </c>
+      <c r="O2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="P2" t="n">
         <v>544823.9547907538</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="P2" t="n">
-        <v>544823.9547907539</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.4416245461</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,19 +26392,19 @@
         <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289269</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>8.695164639390696e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>133113.8635467444</v>
+      </c>
+      <c r="C4" t="n">
         <v>133113.8635467443</v>
       </c>
-      <c r="C4" t="n">
-        <v>133113.8635467444</v>
-      </c>
       <c r="D4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719667</v>
@@ -26432,10 +26432,10 @@
         <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719618</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719668</v>
       </c>
       <c r="I4" t="n">
         <v>7507.368461719667</v>
@@ -26444,16 +26444,16 @@
         <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719634</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719459</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719494</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719492</v>
       </c>
       <c r="O4" t="n">
         <v>7507.368461719667</v>
@@ -26508,7 +26508,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-786600.2249041172</v>
+        <v>-786600.2249041168</v>
       </c>
       <c r="C6" t="n">
-        <v>328151.5586718026</v>
+        <v>328151.5586718023</v>
       </c>
       <c r="D6" t="n">
-        <v>328151.5586718022</v>
+        <v>328151.5586718024</v>
       </c>
       <c r="E6" t="n">
-        <v>-71291.38511941885</v>
+        <v>-71638.76437377579</v>
       </c>
       <c r="F6" t="n">
-        <v>436194.0565051272</v>
+        <v>435846.6772507702</v>
       </c>
       <c r="G6" t="n">
-        <v>436194.0565051271</v>
+        <v>435846.6772507706</v>
       </c>
       <c r="H6" t="n">
-        <v>436194.0565051271</v>
+        <v>435846.6772507701</v>
       </c>
       <c r="I6" t="n">
-        <v>436194.0565051271</v>
+        <v>435846.67725077</v>
       </c>
       <c r="J6" t="n">
-        <v>268588.8786951446</v>
+        <v>268241.4994407878</v>
       </c>
       <c r="K6" t="n">
-        <v>436194.0565051272</v>
+        <v>435846.6772507702</v>
       </c>
       <c r="L6" t="n">
-        <v>436194.0565051271</v>
+        <v>435846.6772507704</v>
       </c>
       <c r="M6" t="n">
-        <v>303586.7627762004</v>
+        <v>303239.3835218438</v>
       </c>
       <c r="N6" t="n">
-        <v>436194.0565051269</v>
+        <v>435846.6772507708</v>
       </c>
       <c r="O6" t="n">
-        <v>436194.0565051271</v>
+        <v>435846.6772507703</v>
       </c>
       <c r="P6" t="n">
-        <v>436194.0565051271</v>
+        <v>435846.6772507706</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26822,13 +26822,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.086895579923837e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26959,34 +26959,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>433.9106082241348</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="E3" t="n">
-        <v>433.9106082241344</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996104</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27381,16 +27381,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>63.02899308545329</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>126.3697218101218</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.0068750168059</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>88.96741578556848</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>89.43037488097218</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>57.00580242192889</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>63.8185494920066</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,25 +27824,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>115.3258519193762</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>25.17603567237052</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>14.42968461979882</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>22.30819244230065</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>80.85095794181413</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,22 +28061,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-6.501964040707998e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>-1.086895579923837e-13</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>-1.086895579923837e-13</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>-1.086895579923837e-13</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>-1.086895579923837e-13</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>-1.086895579923837e-13</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>-1.086895579923837e-13</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>-1.086895579923837e-13</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-1.086895579923837e-13</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>-1.086895579923837e-13</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>-1.086895579923837e-13</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>-1.086895579923837e-13</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>-1.086895579923837e-13</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>-1.052114921366275e-11</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>-1.086895579923837e-13</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>-1.086895579923837e-13</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>-1.086895579923837e-13</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>-1.086895579923837e-13</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>-1.086895579923837e-13</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>-1.086895579923837e-13</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>-1.086895579923837e-13</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>-1.086895579923837e-13</v>
       </c>
     </row>
     <row r="35">
@@ -30182,37 +30182,37 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>-3.105005336230584e-12</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>-1.086895579923837e-13</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>-1.086895579923837e-13</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>-1.086895579923837e-13</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>-1.086895579923837e-13</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>-1.086895579923837e-13</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>-1.086895579923837e-13</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>-1.086895579923837e-13</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>-1.086895579923837e-13</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>-1.086895579923837e-13</v>
       </c>
     </row>
     <row r="38">
@@ -30276,7 +30276,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-2.611294354768676e-12</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>-1.086895579923837e-13</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>-1.086895579923837e-13</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>-1.086895579923837e-13</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>-1.086895579923837e-13</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>-1.086895579923837e-13</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>-1.086895579923837e-13</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>-1.086895579923837e-13</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>-1.086895579923837e-13</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>-1.086895579923837e-13</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>-1.086895579923837e-13</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>-1.086895579923837e-13</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>-1.086895579923837e-13</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>-1.086895579923837e-13</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>-1.086895579923837e-13</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>-1.086895579923837e-13</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>-1.086895579923837e-13</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>-1.086895579923837e-13</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>-1.086895579923837e-13</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>-1.086895579923837e-13</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>-1.086895579923837e-13</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>-1.086895579923837e-13</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>-1.086895579923837e-13</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>-1.086895579923837e-13</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>-1.086895579923837e-13</v>
       </c>
     </row>
     <row r="41">
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31530,16 +31530,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31551,7 +31551,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31600,7 +31600,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31612,16 +31612,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31706,7 +31706,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31715,7 +31715,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,13 +31831,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31846,34 +31846,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>248.7449369209195</v>
+        <v>614.7544723218302</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>302.3396059822671</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,16 +32812,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>441.0292693655512</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O30" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33286,16 +33286,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P33" t="n">
-        <v>431.3680753731354</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M39" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643557995</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643557995</v>
       </c>
       <c r="P42" t="n">
-        <v>399.0581126127094</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34444,34 +34444,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O3" t="n">
-        <v>590.9487307432801</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>122.9351598697852</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35017,13 +35017,13 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>607.3778765237842</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35032,10 +35032,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>544.5140226420058</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>24.58388860977091</v>
@@ -35175,19 +35175,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35196,7 +35196,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,19 +35254,19 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313194</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
@@ -35330,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35345,13 +35345,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,22 +35494,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>110.1905571410453</v>
+        <v>476.2000925419561</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,19 +35731,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>163.7852262023929</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>302.474889585677</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O30" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36934,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P33" t="n">
-        <v>297.3936679588052</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
         <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
         <v>373.2618997060454</v>
@@ -37247,7 +37247,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998879</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.261899706042</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M39" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113551</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,25 +37703,25 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113551</v>
       </c>
       <c r="P42" t="n">
-        <v>265.0837051983791</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,25 +37937,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q43" t="n">
         <v>120.4022572998984</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1844176.282030636</v>
+        <v>1845936.81233342</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283194</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>343.8470526562581</v>
+        <v>11.87224227536425</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>20.62372456600699</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>197.2597383356321</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>162.9848195363563</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247052</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>66.44641297686549</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1104,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>37.38633321484181</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>171.1971464172148</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>286.5888679426066</v>
+        <v>233.461097057616</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1308,10 +1308,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>23.94563726208645</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>51.79563394068597</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1533,16 +1533,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>102.1557845699818</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>146.1850499531015</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1609,13 +1609,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>177.0850116794024</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>72.57619040703501</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187877</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>123.797182079703</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>146.053516066753</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>140.9144183062133</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,13 +2295,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>166.3208822291519</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>122.6028762599955</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>264.5606084460156</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>104.8913819999787</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>9.146142788179425</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>28.75188085812101</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,13 +3006,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>60.11729550773637</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986279</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.524138292269</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H34" t="n">
-        <v>1.799772605705364</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856562</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012176</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710095</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695537</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819374</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986279</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>38.61213096654375</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465693</v>
+        <v>47.15100857094623</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576191</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986279</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>41.55695577161103</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.1376433238281</v>
+        <v>65.38324202937316</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>99.97427419833944</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>285.8040278094281</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>880.6454412161675</v>
+        <v>141.2769458819311</v>
       </c>
       <c r="C2" t="n">
-        <v>880.6454412161675</v>
+        <v>141.2769458819311</v>
       </c>
       <c r="D2" t="n">
-        <v>880.6454412161675</v>
+        <v>141.2769458819311</v>
       </c>
       <c r="E2" t="n">
-        <v>880.6454412161675</v>
+        <v>141.2769458819311</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078259</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G2" t="n">
         <v>117.6204357321147</v>
@@ -4327,7 +4327,7 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
         <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V2" t="n">
         <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1644.250531453059</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X2" t="n">
-        <v>1270.784773191979</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="Y2" t="n">
-        <v>880.6454412161675</v>
+        <v>527.8767859460529</v>
       </c>
     </row>
     <row r="3">
@@ -4403,34 +4403,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M3" t="n">
-        <v>1227.201367341571</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1861.38035112061</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>2193.450786296771</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2440.633520129068</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>665.1026499885492</v>
+        <v>388.804194412387</v>
       </c>
       <c r="C4" t="n">
-        <v>496.1664670606423</v>
+        <v>388.804194412387</v>
       </c>
       <c r="D4" t="n">
-        <v>346.0498276483066</v>
+        <v>388.804194412387</v>
       </c>
       <c r="E4" t="n">
-        <v>198.1367340659135</v>
+        <v>388.804194412387</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>388.804194412387</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>220.8177297206656</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>72.07883158417178</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
@@ -4512,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1437.193859129414</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V4" t="n">
-        <v>1182.509370923527</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W4" t="n">
-        <v>893.0922008865665</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="X4" t="n">
-        <v>665.1026499885492</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="Y4" t="n">
-        <v>665.1026499885492</v>
+        <v>570.4526592426267</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1184.34337792405</v>
+        <v>1852.996172847233</v>
       </c>
       <c r="C5" t="n">
-        <v>1184.34337792405</v>
+        <v>1688.365042002428</v>
       </c>
       <c r="D5" t="n">
-        <v>826.0776793172992</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E5" t="n">
-        <v>440.2894267190549</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F5" t="n">
-        <v>433.3439259698515</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872906</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723848</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S5" t="n">
-        <v>2495.221739534635</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="T5" t="n">
-        <v>2495.221739534635</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="U5" t="n">
-        <v>2241.640678798814</v>
+        <v>2184.059060190803</v>
       </c>
       <c r="V5" t="n">
-        <v>1910.577791455244</v>
+        <v>1852.996172847233</v>
       </c>
       <c r="W5" t="n">
-        <v>1557.80913618513</v>
+        <v>1852.996172847233</v>
       </c>
       <c r="X5" t="n">
-        <v>1184.34337792405</v>
+        <v>1852.996172847233</v>
       </c>
       <c r="Y5" t="n">
-        <v>1184.34337792405</v>
+        <v>1852.996172847233</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>590.20497511435</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>884.9085321458216</v>
       </c>
       <c r="M6" t="n">
-        <v>956.284402521753</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N6" t="n">
-        <v>1343.569531118698</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>1675.63996629486</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710446</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
         <v>2538.001278676482</v>
@@ -4679,16 +4679,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>833.0891146802707</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="C7" t="n">
         <v>664.1529317523638</v>
@@ -4710,22 +4710,22 @@
         <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576349</v>
+        <v>366.1231987576348</v>
       </c>
       <c r="F7" t="n">
         <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312192</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4752,25 +4752,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1402.053399290073</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1112.935061793911</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>1112.935061793911</v>
       </c>
       <c r="W7" t="n">
-        <v>1463.519709552058</v>
+        <v>1112.935061793911</v>
       </c>
       <c r="X7" t="n">
-        <v>1235.53015865404</v>
+        <v>884.9455108958939</v>
       </c>
       <c r="Y7" t="n">
-        <v>1014.73757951051</v>
+        <v>664.1529317523638</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>728.3028554854573</v>
+        <v>1857.810682795504</v>
       </c>
       <c r="C8" t="n">
-        <v>359.3403385450455</v>
+        <v>1857.810682795504</v>
       </c>
       <c r="D8" t="n">
-        <v>359.3403385450455</v>
+        <v>1499.544984188754</v>
       </c>
       <c r="E8" t="n">
-        <v>359.3403385450455</v>
+        <v>1113.75673159051</v>
       </c>
       <c r="F8" t="n">
-        <v>352.3948377958421</v>
+        <v>702.7708268009021</v>
       </c>
       <c r="G8" t="n">
-        <v>340.730491560535</v>
+        <v>287.066076525191</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4840,16 +4840,16 @@
         <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056585</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.507785786471</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="X8" t="n">
-        <v>1505.042027525391</v>
+        <v>1857.810682795504</v>
       </c>
       <c r="Y8" t="n">
-        <v>1114.902695549579</v>
+        <v>1857.810682795504</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380226</v>
+        <v>590.20497511435</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>884.9085321458216</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1006.01552520271</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="C10" t="n">
-        <v>837.0793422748035</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="D10" t="n">
-        <v>686.9627028624677</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="E10" t="n">
-        <v>539.0496092800746</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F10" t="n">
-        <v>392.1596617821642</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G10" t="n">
-        <v>224.1731970904428</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>75.43429895394902</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312195</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1584.127297912188</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1387.498550072049</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1164.520069266785</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>875.4017317706222</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="W10" t="n">
-        <v>1636.446120074497</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="X10" t="n">
-        <v>1408.45656917648</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="Y10" t="n">
-        <v>1187.66399003295</v>
+        <v>620.7172435647353</v>
       </c>
     </row>
     <row r="11">
@@ -5023,28 +5023,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5056,19 +5056,19 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803938</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>716.6687843969303</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>241.729756630365</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797189</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797189</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,37 +5290,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.7540666811332</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532263</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408905</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2018.188796316454</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1729.113569660651</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1474.429081454764</v>
       </c>
       <c r="W16" t="n">
-        <v>1360.39208240939</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X16" t="n">
-        <v>1132.402531511373</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y16" t="n">
-        <v>1132.402531511373</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="17">
@@ -5494,61 +5494,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="20">
@@ -5734,7 +5734,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,19 +5764,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>870.3164745246301</v>
+        <v>634.927936255316</v>
       </c>
       <c r="C22" t="n">
-        <v>701.3802915967232</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D22" t="n">
-        <v>551.2636521843874</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>403.3505586019943</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1809.460189369951</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1554.775701164064</v>
       </c>
       <c r="W22" t="n">
-        <v>1500.747069396417</v>
+        <v>1265.358531127103</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.7575184984</v>
+        <v>1037.368980229086</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.96493935487</v>
+        <v>816.5764010855557</v>
       </c>
     </row>
     <row r="23">
@@ -5968,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>718.5507239167111</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1893.082977031346</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1638.398488825459</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>900.1991887469509</v>
       </c>
     </row>
     <row r="26">
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075809</v>
@@ -6238,40 +6238,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>407.9027098310023</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192603</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400721</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429802</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>916.294644713842</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703119</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6697,31 +6697,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516145</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400606</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121536</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121536</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121536</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121536</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270335</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000584</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6861,7 +6861,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
         <v>826.1405381797745</v>
@@ -6870,40 +6870,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358025</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832653</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487557</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510498</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854696</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648809</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611848</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138307</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703005</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6928,61 +6928,61 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327611</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048541</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133958</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310025</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330921</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.0893932798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853358</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580258</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580258</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580258</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603199</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947396</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741509</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704549</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806531</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.4026036630009</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="38">
@@ -7162,46 +7162,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192612</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273913</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.230692780394</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516147</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167374</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793926</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348534</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327643</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C40" t="n">
-        <v>594.8179559048573</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D40" t="n">
-        <v>444.7013164925214</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E40" t="n">
-        <v>444.7013164925214</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F40" t="n">
-        <v>444.7013164925214</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G40" t="n">
-        <v>277.5052172074012</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>135.7933860495992</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741513</v>
+        <v>1622.342175037157</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704552</v>
+        <v>1332.925005000197</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806534</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.4026036630041</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192514</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311171</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273913</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.230692780394</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516147</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167374</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793926</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348534</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400726</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121657</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D43" t="n">
-        <v>194.80077839983</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E43" t="n">
-        <v>194.80077839983</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>194.80077839983</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487569</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.46108051051</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.28419561186</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138424</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703123</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="44">
@@ -7639,16 +7639,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7657,13 +7657,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8060,28 +8060,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>240.4465442417438</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.454437538930662</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>168.7434581780647</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>294.8344935184736</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878349</v>
+        <v>168.7434581780647</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>46.45968844823057</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,10 +23469,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>139.9994244361426</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>40.32043864788585</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>213.946807929556</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>57.22910392194156</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>106.084127257075</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>4.506629716717924</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>119.8635921600922</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>21.62386594322851</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>62.35543909864917</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>139.4693302300329</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>138.4949402405068</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>226.0671788815078</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H34" t="n">
-        <v>138.4949402405186</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>110.0033420516687</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>99.28295407562294</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.294712846224</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856562</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012176</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016447</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>39.70888054695459</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012174</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016447</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>186.7544012944549</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>65.5498640939294</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,16 +25836,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>0.3804465798160095</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>874391.9782818921</v>
+        <v>874391.9782818923</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>874391.9782818921</v>
+        <v>874391.9782818923</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>874391.9782818919</v>
+        <v>874391.9782818921</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>874391.9782818923</v>
+        <v>874391.9782818921</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>874391.9782818921</v>
+        <v>874391.9782818923</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>874391.9782818921</v>
+        <v>874391.9782818923</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583916</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="E2" t="n">
         <v>544823.954790754</v>
       </c>
       <c r="F2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="G2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="G2" t="n">
-        <v>544823.9547907542</v>
-      </c>
       <c r="H2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.954790754</v>
       </c>
       <c r="I2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="J2" t="n">
         <v>544823.9547907538</v>
       </c>
-      <c r="J2" t="n">
-        <v>544823.954790754</v>
-      </c>
       <c r="K2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="L2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="M2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="N2" t="n">
-        <v>544823.9547907544</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="O2" t="n">
         <v>544823.9547907542</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907541</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245461</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,19 +26392,19 @@
         <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289269</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>8.695164639390696e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>133113.8635467444</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467445</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719667</v>
@@ -26432,10 +26432,10 @@
         <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719618</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
         <v>7507.368461719667</v>
@@ -26444,16 +26444,16 @@
         <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719634</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719459</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719494</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719492</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
         <v>7507.368461719667</v>
@@ -26472,7 +26472,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984467</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26508,7 +26508,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-786600.2249041168</v>
+        <v>-786600.2249041172</v>
       </c>
       <c r="C6" t="n">
-        <v>328151.5586718023</v>
+        <v>328151.558671802</v>
       </c>
       <c r="D6" t="n">
-        <v>328151.5586718024</v>
+        <v>328151.558671802</v>
       </c>
       <c r="E6" t="n">
-        <v>-71638.76437377579</v>
+        <v>-71326.12304485442</v>
       </c>
       <c r="F6" t="n">
-        <v>435846.6772507702</v>
+        <v>436159.3185796917</v>
       </c>
       <c r="G6" t="n">
-        <v>435846.6772507706</v>
+        <v>436159.3185796915</v>
       </c>
       <c r="H6" t="n">
-        <v>435846.6772507701</v>
+        <v>436159.3185796915</v>
       </c>
       <c r="I6" t="n">
-        <v>435846.67725077</v>
+        <v>436159.3185796916</v>
       </c>
       <c r="J6" t="n">
-        <v>268241.4994407878</v>
+        <v>268554.1407697088</v>
       </c>
       <c r="K6" t="n">
-        <v>435846.6772507702</v>
+        <v>436159.3185796912</v>
       </c>
       <c r="L6" t="n">
-        <v>435846.6772507704</v>
+        <v>436159.3185796912</v>
       </c>
       <c r="M6" t="n">
-        <v>303239.3835218438</v>
+        <v>303552.0248507646</v>
       </c>
       <c r="N6" t="n">
-        <v>435846.6772507708</v>
+        <v>436159.3185796916</v>
       </c>
       <c r="O6" t="n">
-        <v>435846.6772507703</v>
+        <v>436159.3185796917</v>
       </c>
       <c r="P6" t="n">
-        <v>435846.6772507706</v>
+        <v>436159.3185796916</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.064892117539</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.064892117539</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000384</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26822,13 +26822,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.086895579923837e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996104</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>63.02899308545329</v>
+        <v>395.0038034663472</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>84.1728706378936</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>88.96741578556848</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>202.2880722346512</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>57.00580242192889</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27678,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27824,19 +27824,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>183.3623627823701</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>115.3258519193762</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>14.42968461979882</v>
+        <v>67.5574555047894</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247052</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>80.85095794181413</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>49.76193847888768</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.501964040707998e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-1.086895579923837e-13</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>-1.086895579923837e-13</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-1.086895579923837e-13</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>-1.086895579923837e-13</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.086895579923837e-13</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.086895579923837e-13</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>-1.086895579923837e-13</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-1.086895579923837e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>-1.086895579923837e-13</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>-1.086895579923837e-13</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>-1.086895579923837e-13</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>-1.086895579923837e-13</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>-1.052114921366275e-11</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>-1.086895579923837e-13</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>-1.086895579923837e-13</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>-1.086895579923837e-13</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>-1.086895579923837e-13</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>-1.086895579923837e-13</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>-1.086895579923837e-13</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>-1.086895579923837e-13</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>-1.086895579923837e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30182,37 +30182,37 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>-3.105005336230584e-12</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>-1.086895579923837e-13</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>-1.086895579923837e-13</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>-1.086895579923837e-13</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>-1.086895579923837e-13</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>-1.086895579923837e-13</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>-1.086895579923837e-13</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>-1.086895579923837e-13</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>-1.086895579923837e-13</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>-1.086895579923837e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30276,7 +30276,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-2.611294354768676e-12</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-1.086895579923837e-13</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>-1.086895579923837e-13</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-1.086895579923837e-13</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>-1.086895579923837e-13</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.086895579923837e-13</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>-1.086895579923837e-13</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>-1.086895579923837e-13</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-1.086895579923837e-13</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>-1.086895579923837e-13</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>-1.086895579923837e-13</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>-1.086895579923837e-13</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>-1.086895579923837e-13</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>-1.086895579923837e-13</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>-1.086895579923837e-13</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>-1.086895579923837e-13</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>-1.086895579923837e-13</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>-1.086895579923837e-13</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>-1.086895579923837e-13</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>-1.086895579923837e-13</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>-1.086895579923837e-13</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>-1.086895579923837e-13</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>-1.086895579923837e-13</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>-1.086895579923837e-13</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>-1.086895579923837e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -31281,7 +31281,7 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336177</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
@@ -31299,7 +31299,7 @@
         <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342222</v>
       </c>
       <c r="O5" t="n">
         <v>632.6811099166594</v>
@@ -31314,13 +31314,13 @@
         <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745095</v>
       </c>
       <c r="T5" t="n">
         <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H6" t="n">
         <v>19.4038763438002</v>
@@ -31369,22 +31369,22 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L6" t="n">
         <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040587</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.538811676207</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405673</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378624</v>
       </c>
       <c r="Q6" t="n">
         <v>256.462496416876</v>
@@ -31436,7 +31436,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H7" t="n">
         <v>14.97566335231072</v>
@@ -31451,10 +31451,10 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227907</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067958</v>
@@ -31469,13 +31469,13 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759584</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.19689343106956</v>
       </c>
       <c r="U7" t="n">
         <v>0.09187523529024984</v>
@@ -31518,46 +31518,46 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336177</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342222</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745095</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040587</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.538811676207</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405673</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378624</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H10" t="n">
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31688,16 +31688,16 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227907</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759584</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.19689343106956</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>614.7544723218302</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>398.7616643558013</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558009</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.307619600775</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643557995</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.307619600775</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643557995</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34780,28 +34780,28 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>490.1260733652761</v>
       </c>
       <c r="Q3" t="n">
-        <v>122.9351598697852</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407336</v>
       </c>
       <c r="L5" t="n">
         <v>356.8062301067507</v>
@@ -34947,7 +34947,7 @@
         <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376313</v>
       </c>
       <c r="O5" t="n">
         <v>402.5828984949726</v>
@@ -34959,7 +34959,7 @@
         <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939898</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215494</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
@@ -35026,19 +35026,19 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928738</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961229</v>
       </c>
       <c r="P6" t="n">
-        <v>544.5140226420058</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
         <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>24.5838886097709</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870591</v>
       </c>
       <c r="K7" t="n">
         <v>173.424759342349</v>
@@ -35102,7 +35102,7 @@
         <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860244</v>
@@ -35111,7 +35111,7 @@
         <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q7" t="n">
         <v>54.881755458054</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407336</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376313</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939898</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313197</v>
+        <v>355.3309544215494</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928738</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961229</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.5838886097709</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870591</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>476.2000925419561</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>256.1654199113569</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113564</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
         <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
         <v>373.2618997060454</v>
@@ -37247,7 +37247,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998879</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.261899706042</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774958</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674334</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113551</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37703,25 +37703,25 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774958</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674334</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113551</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,25 +37937,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
         <v>120.4022572998984</v>
